--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pindiche\Desktop\ObstacleAvoidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56951B21-7E7B-4144-945F-13CDACECB43A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB05600-B0AC-47E8-AD88-1BC6F89A741F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{468E8241-07BD-4C8D-B197-99E2DBA51C17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="33">
   <si>
     <t>Test cases</t>
   </si>
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +155,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +191,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,22 +378,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C489DF-418A-40E7-8921-174EBB1C600C}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +731,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -761,7 +762,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -776,10 +777,10 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>0.43</v>
       </c>
       <c r="H5" s="2"/>
@@ -789,7 +790,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
@@ -798,10 +799,10 @@
       <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>1.29E-2</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>0.25219999999999998</v>
       </c>
       <c r="H6" s="2"/>
@@ -811,7 +812,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -826,10 +827,10 @@
       <c r="E7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>1.04E-2</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>0.3518</v>
       </c>
       <c r="H7" s="2"/>
@@ -839,7 +840,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
@@ -848,10 +849,10 @@
       <c r="E8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>1.77E-2</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>0.25180000000000002</v>
       </c>
       <c r="H8" s="2"/>
@@ -861,7 +862,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -876,10 +877,10 @@
       <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>0.42470000000000002</v>
       </c>
       <c r="H9" s="2"/>
@@ -889,7 +890,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
@@ -898,10 +899,10 @@
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>0.25190000000000001</v>
       </c>
       <c r="H10" s="2"/>
@@ -953,7 +954,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -968,10 +969,10 @@
       <c r="E13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>6.6E-3</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>0.52170000000000005</v>
       </c>
       <c r="H13" s="2"/>
@@ -981,7 +982,7 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
@@ -990,15 +991,15 @@
       <c r="E14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>0.2767</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1013,15 +1014,15 @@
       <c r="E15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <v>0.22489999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">
@@ -1030,15 +1031,15 @@
       <c r="E16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>0.1593</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -1053,15 +1054,15 @@
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>0.2621</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="4" t="s">
@@ -1070,10 +1071,10 @@
       <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>0.2329</v>
       </c>
     </row>
@@ -1101,7 +1102,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1116,30 +1117,30 @@
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>0.38650000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>1.4E-2</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>0.27610000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1154,30 +1155,30 @@
       <c r="E23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>0.32469999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <v>0.25180000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1192,30 +1193,30 @@
       <c r="E25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="25">
         <v>0.32469999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>1.67E-2</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>0.25180000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1246,7 +1247,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -1261,15 +1262,15 @@
       <c r="E32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>0.40639999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12" t="s">
@@ -1278,15 +1279,15 @@
       <c r="E33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="25">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="25">
         <v>0.25309999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -1301,15 +1302,15 @@
       <c r="E34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="25">
         <v>0.01</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="25">
         <v>0.29949999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12" t="s">
@@ -1318,15 +1319,15 @@
       <c r="E35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="25">
         <v>1.54E-2</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="25">
         <v>0.25240000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -1341,15 +1342,15 @@
       <c r="E36" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="25">
         <v>1.55E-2</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <v>0.26889999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="4" t="s">
@@ -1358,10 +1359,10 @@
       <c r="E37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="25">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="25">
         <v>0.25180000000000002</v>
       </c>
     </row>
@@ -1398,7 +1399,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -1413,15 +1414,15 @@
       <c r="E40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="25">
         <v>6.6E-3</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <v>2.0259999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12" t="s">
@@ -1430,15 +1431,15 @@
       <c r="E41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="25">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="25">
         <v>3.4809999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -1453,15 +1454,15 @@
       <c r="E42" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="25">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>0.34</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12" t="s">
@@ -1470,15 +1471,15 @@
       <c r="E43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="25">
         <v>1.26E-2</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="25">
         <v>0.25259999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -1493,15 +1494,15 @@
       <c r="E44" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="25">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <v>0.15820000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="4" t="s">
@@ -1510,10 +1511,10 @@
       <c r="E45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="25">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>0.15010000000000001</v>
       </c>
     </row>
@@ -1541,7 +1542,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -1556,30 +1557,30 @@
       <c r="E48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="25">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="25">
         <v>0.40329999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="25">
         <v>1.2E-2</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="25">
         <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -1594,30 +1595,30 @@
       <c r="E50" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="25">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="25">
         <v>0.3216</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="25">
         <v>1.29E-2</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="25">
         <v>0.25259999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -1632,30 +1633,30 @@
       <c r="E52" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F52" s="25">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="25">
         <v>0.34</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="25">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="25">
         <v>0.2525</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
+      <c r="A56" s="20"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -1686,7 +1687,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -1701,15 +1702,15 @@
       <c r="E59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="25">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="25">
         <v>0.1583</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12" t="s">
@@ -1718,15 +1719,15 @@
       <c r="E60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="25">
         <v>1.23E-2</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -1741,15 +1742,15 @@
       <c r="E61" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="25">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="25">
         <v>0.1293</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12" t="s">
@@ -1758,15 +1759,15 @@
       <c r="E62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="25">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -1781,15 +1782,15 @@
       <c r="E63" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="25">
         <v>1.35E-2</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="25">
         <v>9.6600000000000005E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="4" t="s">
@@ -1798,10 +1799,10 @@
       <c r="E64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F64" s="25">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="G64" s="26">
+      <c r="G64" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1838,7 +1839,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -1853,15 +1854,15 @@
       <c r="E67" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F67" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G67" s="26">
+      <c r="G67" s="25">
         <v>0.13370000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12" t="s">
@@ -1870,10 +1871,10 @@
       <c r="E68" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="26">
+      <c r="F68" s="25">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G68" s="25">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1901,7 +1902,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -1916,30 +1917,30 @@
       <c r="E71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="26">
+      <c r="F71" s="25">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="25">
         <v>0.31730000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F72" s="25">
         <v>1.34E-2</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G72" s="25">
         <v>0.24590000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -1954,30 +1955,30 @@
       <c r="E73" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="26">
+      <c r="F73" s="25">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="25">
         <v>0.16980000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="26">
+      <c r="F74" s="25">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="25">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -1992,30 +1993,30 @@
       <c r="E75" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="26">
+      <c r="F75" s="25">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="25">
         <v>0.13370000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="26">
+      <c r="F76" s="25">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="G76" s="26">
+      <c r="G76" s="25">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="26"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -2046,7 +2047,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -2061,15 +2062,15 @@
       <c r="E82" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="26">
+      <c r="F82" s="25">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="25">
         <v>0.80689999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="12" t="s">
@@ -2078,15 +2079,15 @@
       <c r="E83" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="26">
+      <c r="F83" s="25">
         <v>1.29E-2</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="25">
         <v>0.41880000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -2101,15 +2102,15 @@
       <c r="E84" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F84" s="25">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G84" s="25">
         <v>0.73040000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="12" t="s">
@@ -2118,15 +2119,15 @@
       <c r="E85" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F85" s="25">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="G85" s="26">
+      <c r="G85" s="25">
         <v>0.41139999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -2141,15 +2142,15 @@
       <c r="E86" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="25">
         <v>0.62890000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="4" t="s">
@@ -2158,10 +2159,10 @@
       <c r="E87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="25">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G87" s="25">
         <v>0.4088</v>
       </c>
     </row>
@@ -2198,7 +2199,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -2213,15 +2214,15 @@
       <c r="E90" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="26">
+      <c r="F90" s="25">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G90" s="25">
         <v>0.83479999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="12" t="s">
@@ -2230,10 +2231,10 @@
       <c r="E91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="26">
+      <c r="F91" s="25">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="G91" s="26">
+      <c r="G91" s="25">
         <v>0.41270000000000001</v>
       </c>
     </row>
@@ -2261,7 +2262,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -2276,30 +2277,30 @@
       <c r="E94" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F94" s="26">
+      <c r="F94" s="25">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="G94" s="26">
+      <c r="G94" s="25">
         <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="26">
+      <c r="F95" s="25">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G95" s="25">
         <v>0.41470000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -2314,30 +2315,30 @@
       <c r="E96" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="26">
+      <c r="F96" s="25">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="G96" s="26">
+      <c r="G96" s="25">
         <v>0.82850000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="26">
+      <c r="F97" s="25">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="G97" s="26">
+      <c r="G97" s="25">
         <v>0.41270000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -2352,25 +2353,25 @@
       <c r="E98" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F98" s="26">
+      <c r="F98" s="25">
         <v>0.01</v>
       </c>
-      <c r="G98" s="26">
+      <c r="G98" s="25">
         <v>0.83479999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="26">
+      <c r="F99" s="25">
         <v>1.55E-2</v>
       </c>
-      <c r="G99" s="26">
+      <c r="G99" s="25">
         <v>0.41270000000000001</v>
       </c>
     </row>

--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pindiche\Desktop\ObstacleAvoidance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB05600-B0AC-47E8-AD88-1BC6F89A741F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272FA49-88E3-4EFB-B48B-DA1E59D12103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{468E8241-07BD-4C8D-B197-99E2DBA51C17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="39">
   <si>
     <t>Test cases</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>Nsim = 900</t>
+  </si>
+  <si>
+    <t>Observations:</t>
+  </si>
+  <si>
+    <t>from pov of computational time, NMPC is faster than FLMPC</t>
+  </si>
+  <si>
+    <t>from error tracking pov, FLMPC follows the trajectories better than NMPC</t>
+  </si>
+  <si>
+    <t>FLMPC works for a smaller Npred and Q</t>
+  </si>
+  <si>
+    <t>for the circle trajectory, the FLMPC does not follow yaw angle</t>
+  </si>
+  <si>
+    <t>NMPC has a strange behavior for circle due to timing problems</t>
   </si>
 </sst>
 </file>
@@ -163,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -318,11 +342,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -394,6 +429,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,7 +764,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,20 +776,30 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="J1" s="30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
+      <c r="J2" s="33" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J3" s="31" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -760,6 +823,9 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J4" s="31" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -785,7 +851,9 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -799,15 +867,17 @@
       <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="28">
         <v>1.29E-2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="28">
         <v>0.25219999999999998</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -827,10 +897,10 @@
       <c r="E7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="29">
         <v>1.04E-2</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="29">
         <v>0.3518</v>
       </c>
       <c r="H7" s="2"/>
@@ -849,10 +919,10 @@
       <c r="E8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="28">
         <v>1.77E-2</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="28">
         <v>0.25180000000000002</v>
       </c>
       <c r="H8" s="2"/>
@@ -877,10 +947,10 @@
       <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="27">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="27">
         <v>0.42470000000000002</v>
       </c>
       <c r="H9" s="2"/>
@@ -991,10 +1061,10 @@
       <c r="E14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="28">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="28">
         <v>0.2767</v>
       </c>
     </row>
@@ -1014,10 +1084,10 @@
       <c r="E15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="29">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="29">
         <v>0.22489999999999999</v>
       </c>
     </row>
@@ -1031,10 +1101,10 @@
       <c r="E16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="28">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="28">
         <v>0.1593</v>
       </c>
     </row>
@@ -1054,10 +1124,10 @@
       <c r="E17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="27">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="27">
         <v>0.2621</v>
       </c>
     </row>
@@ -1132,10 +1202,10 @@
       <c r="E22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="28">
         <v>0.27610000000000001</v>
       </c>
     </row>
@@ -1155,10 +1225,10 @@
       <c r="E23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="29">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="29">
         <v>0.32469999999999999</v>
       </c>
     </row>
@@ -1170,10 +1240,10 @@
       <c r="E24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="28">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="28">
         <v>0.25180000000000002</v>
       </c>
     </row>
@@ -1193,10 +1263,10 @@
       <c r="E25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="27">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="27">
         <v>0.32469999999999999</v>
       </c>
     </row>
@@ -1279,10 +1349,10 @@
       <c r="E33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="28">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="28">
         <v>0.25309999999999999</v>
       </c>
     </row>
@@ -1302,10 +1372,10 @@
       <c r="E34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="29">
         <v>0.01</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="29">
         <v>0.29949999999999999</v>
       </c>
     </row>
@@ -1319,10 +1389,10 @@
       <c r="E35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="28">
         <v>1.54E-2</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="28">
         <v>0.25240000000000001</v>
       </c>
     </row>
@@ -1342,10 +1412,10 @@
       <c r="E36" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="27">
         <v>1.55E-2</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="27">
         <v>0.26889999999999997</v>
       </c>
     </row>
@@ -1431,10 +1501,10 @@
       <c r="E41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="28">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="28">
         <v>3.4809999999999999</v>
       </c>
     </row>
@@ -1454,10 +1524,10 @@
       <c r="E42" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="29">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="29">
         <v>0.34</v>
       </c>
     </row>
@@ -1471,10 +1541,10 @@
       <c r="E43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="28">
         <v>1.26E-2</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="28">
         <v>0.25259999999999999</v>
       </c>
     </row>
@@ -1494,10 +1564,10 @@
       <c r="E44" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="27">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="27">
         <v>0.15820000000000001</v>
       </c>
     </row>
@@ -1572,10 +1642,10 @@
       <c r="E49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="28">
         <v>1.2E-2</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="28">
         <v>0.28199999999999997</v>
       </c>
     </row>
@@ -1595,10 +1665,10 @@
       <c r="E50" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="29">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="29">
         <v>0.3216</v>
       </c>
     </row>
@@ -1610,10 +1680,10 @@
       <c r="E51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="28">
         <v>1.29E-2</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="28">
         <v>0.25259999999999999</v>
       </c>
     </row>
@@ -1633,10 +1703,10 @@
       <c r="E52" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="27">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="27">
         <v>0.34</v>
       </c>
     </row>
@@ -1719,10 +1789,10 @@
       <c r="E60" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="28">
         <v>1.23E-2</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="28">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1742,10 +1812,10 @@
       <c r="E61" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="29">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="29">
         <v>0.1293</v>
       </c>
     </row>
@@ -1759,10 +1829,10 @@
       <c r="E62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="28">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="28">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1782,10 +1852,10 @@
       <c r="E63" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="27">
         <v>1.35E-2</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="27">
         <v>9.6600000000000005E-2</v>
       </c>
     </row>
@@ -1871,10 +1941,10 @@
       <c r="E68" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="28">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="28">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1932,10 +2002,10 @@
       <c r="E72" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="28">
         <v>1.34E-2</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="28">
         <v>0.24590000000000001</v>
       </c>
     </row>
@@ -1955,10 +2025,10 @@
       <c r="E73" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F73" s="29">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="29">
         <v>0.16980000000000001</v>
       </c>
     </row>
@@ -1970,10 +2040,10 @@
       <c r="E74" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="28">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="28">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
@@ -1993,10 +2063,10 @@
       <c r="E75" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="27">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="27">
         <v>0.13370000000000001</v>
       </c>
     </row>
@@ -2079,10 +2149,10 @@
       <c r="E83" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="25">
+      <c r="F83" s="28">
         <v>1.29E-2</v>
       </c>
-      <c r="G83" s="25">
+      <c r="G83" s="28">
         <v>0.41880000000000001</v>
       </c>
     </row>
@@ -2102,10 +2172,10 @@
       <c r="E84" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F84" s="25">
+      <c r="F84" s="29">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="G84" s="25">
+      <c r="G84" s="29">
         <v>0.73040000000000005</v>
       </c>
     </row>
@@ -2119,10 +2189,10 @@
       <c r="E85" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="25">
+      <c r="F85" s="28">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G85" s="28">
         <v>0.41139999999999999</v>
       </c>
     </row>
@@ -2142,10 +2212,10 @@
       <c r="E86" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F86" s="25">
+      <c r="F86" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G86" s="25">
+      <c r="G86" s="27">
         <v>0.62890000000000001</v>
       </c>
     </row>
@@ -2231,10 +2301,10 @@
       <c r="E91" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="25">
+      <c r="F91" s="28">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="28">
         <v>0.41270000000000001</v>
       </c>
     </row>
@@ -2292,10 +2362,10 @@
       <c r="E95" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="25">
+      <c r="F95" s="28">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="28">
         <v>0.41470000000000001</v>
       </c>
     </row>
@@ -2315,10 +2385,10 @@
       <c r="E96" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="25">
+      <c r="F96" s="29">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="G96" s="25">
+      <c r="G96" s="29">
         <v>0.82850000000000001</v>
       </c>
     </row>
@@ -2330,10 +2400,10 @@
       <c r="E97" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="25">
+      <c r="F97" s="28">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="G97" s="25">
+      <c r="G97" s="28">
         <v>0.41270000000000001</v>
       </c>
     </row>
@@ -2353,10 +2423,10 @@
       <c r="E98" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F98" s="25">
+      <c r="F98" s="27">
         <v>0.01</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G98" s="27">
         <v>0.83479999999999999</v>
       </c>
     </row>

--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pindiche\Desktop\ObstacleAvoidance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pindiche\Desktop\QcarProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272FA49-88E3-4EFB-B48B-DA1E59D12103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38FBF0-946A-47E3-BA9B-B237B2E62938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{468E8241-07BD-4C8D-B197-99E2DBA51C17}"/>
   </bookViews>
@@ -764,7 +764,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
